--- a/database/industries/biscuit/ghesalem/product/yearly.xlsx
+++ b/database/industries/biscuit/ghesalem/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghesalem\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\biscuit\ghesalem\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AE9C2E-1925-4003-AE24-A4A0181489AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50457426-7C13-4D2B-B62F-34AC6FDFDBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7176" yWindow="5148" windowWidth="13800" windowHeight="7092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>کیک</t>
@@ -578,12 +578,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -593,7 +593,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,7 +605,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -617,7 +617,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -627,7 +627,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -639,7 +639,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -651,7 +651,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -661,7 +661,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -683,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -693,7 +693,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -702,22 +702,22 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>9619</v>
+        <v>9257</v>
       </c>
       <c r="F10" s="9">
-        <v>9257</v>
+        <v>9878</v>
       </c>
       <c r="G10" s="9">
-        <v>9878</v>
+        <v>10499</v>
       </c>
       <c r="H10" s="9">
-        <v>10499</v>
+        <v>11489</v>
       </c>
       <c r="I10" s="9">
-        <v>11489</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12368</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -726,22 +726,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>5167</v>
+        <v>8191</v>
       </c>
       <c r="F11" s="11">
-        <v>8191</v>
+        <v>7964</v>
       </c>
       <c r="G11" s="11">
-        <v>7964</v>
-      </c>
-      <c r="H11" s="11">
         <v>8789</v>
       </c>
+      <c r="H11" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I11" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -750,22 +750,22 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="F12" s="9">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="G12" s="9">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="H12" s="9">
-        <v>415</v>
+        <v>828</v>
       </c>
       <c r="I12" s="9">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -774,22 +774,22 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>21012</v>
+        <v>19635</v>
       </c>
       <c r="F13" s="11">
-        <v>19635</v>
+        <v>22553</v>
       </c>
       <c r="G13" s="11">
-        <v>22553</v>
+        <v>19289</v>
       </c>
       <c r="H13" s="11">
-        <v>19289</v>
+        <v>19983</v>
       </c>
       <c r="I13" s="11">
-        <v>19983</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18333</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -806,14 +806,14 @@
       <c r="G14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>13</v>
+      <c r="H14" s="9">
+        <v>2226</v>
       </c>
       <c r="I14" s="9">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -828,14 +828,14 @@
       <c r="G15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>13</v>
+      <c r="H15" s="11">
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -843,23 +843,23 @@
         <v>11</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>13</v>
+      <c r="E16" s="9">
+        <v>169</v>
       </c>
       <c r="F16" s="9">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="G16" s="9">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H16" s="9">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="I16" s="9">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -876,14 +876,14 @@
       <c r="G17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>13</v>
+      <c r="H17" s="11">
+        <v>6376</v>
       </c>
       <c r="I17" s="11">
-        <v>6376</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5601</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -900,14 +900,14 @@
       <c r="G18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>13</v>
+      <c r="H18" s="9">
+        <v>110</v>
       </c>
       <c r="I18" s="9">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -924,36 +924,36 @@
       <c r="G19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>13</v>
+      <c r="H19" s="11">
+        <v>1095</v>
       </c>
       <c r="I19" s="11">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>36189</v>
+        <v>37626</v>
       </c>
       <c r="F20" s="13">
-        <v>37626</v>
+        <v>40467</v>
       </c>
       <c r="G20" s="13">
-        <v>40467</v>
+        <v>39070</v>
       </c>
       <c r="H20" s="13">
-        <v>39070</v>
+        <v>42174</v>
       </c>
       <c r="I20" s="13">
-        <v>42174</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41706</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -963,7 +963,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -973,7 +973,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -983,7 +983,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1015,7 +1015,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
@@ -1024,22 +1024,22 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>9619</v>
+        <v>9202</v>
       </c>
       <c r="F26" s="9">
-        <v>9202</v>
+        <v>9921</v>
       </c>
       <c r="G26" s="9">
-        <v>9921</v>
+        <v>10519</v>
       </c>
       <c r="H26" s="9">
-        <v>10519</v>
+        <v>11471</v>
       </c>
       <c r="I26" s="9">
-        <v>11471</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>12</v>
       </c>
@@ -1048,22 +1048,22 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>5138</v>
+        <v>8152</v>
       </c>
       <c r="F27" s="11">
-        <v>8152</v>
+        <v>7893</v>
       </c>
       <c r="G27" s="11">
-        <v>7893</v>
-      </c>
-      <c r="H27" s="11">
         <v>8792</v>
       </c>
+      <c r="H27" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I27" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
@@ -1072,22 +1072,22 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="F28" s="9">
-        <v>367</v>
+        <v>6</v>
       </c>
       <c r="G28" s="9">
-        <v>6</v>
+        <v>393</v>
       </c>
       <c r="H28" s="9">
-        <v>393</v>
+        <v>838</v>
       </c>
       <c r="I28" s="9">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>15</v>
       </c>
@@ -1096,22 +1096,22 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>20895</v>
+        <v>19782</v>
       </c>
       <c r="F29" s="11">
-        <v>19782</v>
+        <v>22252</v>
       </c>
       <c r="G29" s="11">
-        <v>22252</v>
+        <v>19356</v>
       </c>
       <c r="H29" s="11">
-        <v>19356</v>
+        <v>19880</v>
       </c>
       <c r="I29" s="11">
-        <v>19880</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17938</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>24</v>
       </c>
@@ -1119,8 +1119,8 @@
         <v>25</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>13</v>
+      <c r="E30" s="9">
+        <v>0</v>
       </c>
       <c r="F30" s="9">
         <v>0</v>
@@ -1128,14 +1128,14 @@
       <c r="G30" s="9">
         <v>0</v>
       </c>
-      <c r="H30" s="9">
-        <v>0</v>
+      <c r="H30" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -1152,21 +1152,21 @@
       <c r="G31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>13</v>
+      <c r="H31" s="11">
+        <v>2228</v>
       </c>
       <c r="I31" s="11">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>13</v>
+      <c r="E32" s="9">
+        <v>0</v>
       </c>
       <c r="F32" s="9">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>18</v>
       </c>
@@ -1189,23 +1189,23 @@
         <v>11</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>13</v>
+      <c r="E33" s="11">
+        <v>167</v>
       </c>
       <c r="F33" s="11">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="G33" s="11">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H33" s="11">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I33" s="11">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>19</v>
       </c>
@@ -1222,14 +1222,14 @@
       <c r="G34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>13</v>
+      <c r="H34" s="9">
+        <v>6373</v>
       </c>
       <c r="I34" s="9">
-        <v>6373</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5527</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>20</v>
       </c>
@@ -1246,14 +1246,14 @@
       <c r="G35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>13</v>
+      <c r="H35" s="11">
+        <v>119</v>
       </c>
       <c r="I35" s="11">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>21</v>
       </c>
@@ -1270,36 +1270,36 @@
       <c r="G36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>13</v>
+      <c r="H36" s="9">
+        <v>1092</v>
       </c>
       <c r="I36" s="9">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>36034</v>
+        <v>37670</v>
       </c>
       <c r="F37" s="15">
-        <v>37670</v>
+        <v>40139</v>
       </c>
       <c r="G37" s="15">
-        <v>40139</v>
+        <v>39136</v>
       </c>
       <c r="H37" s="15">
-        <v>39136</v>
+        <v>42069</v>
       </c>
       <c r="I37" s="15">
-        <v>42069</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41101</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1309,7 +1309,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1319,7 +1319,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1329,7 +1329,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>26</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1361,7 +1361,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>10</v>
       </c>
@@ -1370,22 +1370,22 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>619387</v>
+        <v>805356</v>
       </c>
       <c r="F43" s="9">
-        <v>805356</v>
+        <v>1127011</v>
       </c>
       <c r="G43" s="9">
-        <v>1127011</v>
+        <v>1893092</v>
       </c>
       <c r="H43" s="9">
-        <v>1893092</v>
+        <v>3162917</v>
       </c>
       <c r="I43" s="9">
-        <v>3162917</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6610469</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>12</v>
       </c>
@@ -1394,22 +1394,22 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>224220</v>
+        <v>524130</v>
       </c>
       <c r="F44" s="11">
-        <v>524130</v>
+        <v>714219</v>
       </c>
       <c r="G44" s="11">
-        <v>714219</v>
-      </c>
-      <c r="H44" s="11">
         <v>1236794</v>
       </c>
+      <c r="H44" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I44" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>14</v>
       </c>
@@ -1418,22 +1418,22 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>19274</v>
+        <v>33381</v>
       </c>
       <c r="F45" s="9">
-        <v>33381</v>
+        <v>567</v>
       </c>
       <c r="G45" s="9">
-        <v>567</v>
+        <v>69026</v>
       </c>
       <c r="H45" s="9">
-        <v>69026</v>
+        <v>208955</v>
       </c>
       <c r="I45" s="9">
-        <v>208955</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>576535</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>15</v>
       </c>
@@ -1442,22 +1442,22 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>125372</v>
+        <v>160164</v>
       </c>
       <c r="F46" s="11">
-        <v>160164</v>
+        <v>333827</v>
       </c>
       <c r="G46" s="11">
-        <v>333827</v>
+        <v>348416</v>
       </c>
       <c r="H46" s="11">
-        <v>348416</v>
+        <v>556641</v>
       </c>
       <c r="I46" s="11">
-        <v>556641</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>735484</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>24</v>
       </c>
@@ -1465,8 +1465,8 @@
         <v>27</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>13</v>
+      <c r="E47" s="9">
+        <v>0</v>
       </c>
       <c r="F47" s="9">
         <v>0</v>
@@ -1474,14 +1474,14 @@
       <c r="G47" s="9">
         <v>0</v>
       </c>
-      <c r="H47" s="9">
-        <v>0</v>
+      <c r="H47" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
@@ -1498,14 +1498,14 @@
       <c r="G48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>13</v>
+      <c r="H48" s="11">
+        <v>391561</v>
       </c>
       <c r="I48" s="11">
-        <v>391561</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>791365</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>17</v>
       </c>
@@ -1513,8 +1513,8 @@
         <v>27</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>13</v>
+      <c r="E49" s="9">
+        <v>0</v>
       </c>
       <c r="F49" s="9">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>18</v>
       </c>
@@ -1537,23 +1537,23 @@
         <v>27</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>13</v>
+      <c r="E50" s="11">
+        <v>21838</v>
       </c>
       <c r="F50" s="11">
-        <v>21838</v>
+        <v>10138</v>
       </c>
       <c r="G50" s="11">
-        <v>10138</v>
+        <v>20621</v>
       </c>
       <c r="H50" s="11">
-        <v>20621</v>
+        <v>31820</v>
       </c>
       <c r="I50" s="11">
-        <v>31820</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>56785</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>19</v>
       </c>
@@ -1570,14 +1570,14 @@
       <c r="G51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="9" t="s">
-        <v>13</v>
+      <c r="H51" s="9">
+        <v>1174835</v>
       </c>
       <c r="I51" s="9">
-        <v>1174835</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2647924</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>20</v>
       </c>
@@ -1594,14 +1594,14 @@
       <c r="G52" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>13</v>
+      <c r="H52" s="11">
+        <v>22669</v>
       </c>
       <c r="I52" s="11">
-        <v>22669</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>205625</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>21</v>
       </c>
@@ -1618,36 +1618,36 @@
       <c r="G53" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>13</v>
+      <c r="H53" s="9">
+        <v>408702</v>
       </c>
       <c r="I53" s="9">
-        <v>408702</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1189452</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
-        <v>988253</v>
+        <v>1544869</v>
       </c>
       <c r="F54" s="15">
-        <v>1544869</v>
+        <v>2185762</v>
       </c>
       <c r="G54" s="15">
-        <v>2185762</v>
+        <v>3567949</v>
       </c>
       <c r="H54" s="15">
-        <v>3567949</v>
+        <v>5958100</v>
       </c>
       <c r="I54" s="15">
-        <v>5958100</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12813639</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1657,7 +1657,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1667,7 +1667,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1677,7 +1677,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>28</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1709,7 +1709,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>10</v>
       </c>
@@ -1718,22 +1718,22 @@
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
-        <v>64392037</v>
+        <v>87519670</v>
       </c>
       <c r="F60" s="9">
-        <v>87519670</v>
+        <v>113598528</v>
       </c>
       <c r="G60" s="9">
-        <v>113598528</v>
+        <v>179968818</v>
       </c>
       <c r="H60" s="9">
-        <v>179968818</v>
+        <v>275731584</v>
       </c>
       <c r="I60" s="9">
-        <v>275731584</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>535260648</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>12</v>
       </c>
@@ -1742,22 +1742,22 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>43639548</v>
+        <v>64294652</v>
       </c>
       <c r="F61" s="11">
-        <v>64294652</v>
+        <v>90487647</v>
       </c>
       <c r="G61" s="11">
-        <v>90487647</v>
-      </c>
-      <c r="H61" s="11">
         <v>140672657</v>
       </c>
+      <c r="H61" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I61" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>14</v>
       </c>
@@ -1766,22 +1766,22 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>50455497</v>
+        <v>90956403</v>
       </c>
       <c r="F62" s="9">
-        <v>90956403</v>
+        <v>94500000</v>
       </c>
       <c r="G62" s="9">
-        <v>94500000</v>
+        <v>175638677</v>
       </c>
       <c r="H62" s="9">
-        <v>175638677</v>
+        <v>249349642</v>
       </c>
       <c r="I62" s="9">
-        <v>249349642</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>574810568</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>15</v>
       </c>
@@ -1790,22 +1790,22 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>6000096</v>
+        <v>8096451</v>
       </c>
       <c r="F63" s="11">
-        <v>8096451</v>
+        <v>15002112</v>
       </c>
       <c r="G63" s="11">
-        <v>15002112</v>
+        <v>18000413</v>
       </c>
       <c r="H63" s="11">
-        <v>18000413</v>
+        <v>28000050</v>
       </c>
       <c r="I63" s="11">
-        <v>28000050</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41001449</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>24</v>
       </c>
@@ -1813,8 +1813,8 @@
         <v>30</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>13</v>
+      <c r="E64" s="9">
+        <v>0</v>
       </c>
       <c r="F64" s="9">
         <v>0</v>
@@ -1822,14 +1822,14 @@
       <c r="G64" s="9">
         <v>0</v>
       </c>
-      <c r="H64" s="9">
-        <v>0</v>
+      <c r="H64" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>16</v>
       </c>
@@ -1846,14 +1846,14 @@
       <c r="G65" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>13</v>
+      <c r="H65" s="11">
+        <v>175745512</v>
       </c>
       <c r="I65" s="11">
-        <v>175745512</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>414979025</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>17</v>
       </c>
@@ -1861,8 +1861,8 @@
         <v>30</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>13</v>
+      <c r="E66" s="9">
+        <v>0</v>
       </c>
       <c r="F66" s="9">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>18</v>
       </c>
@@ -1885,23 +1885,23 @@
         <v>29</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>13</v>
+      <c r="E67" s="11">
+        <v>130766467</v>
       </c>
       <c r="F67" s="11">
-        <v>130766467</v>
+        <v>151313433</v>
       </c>
       <c r="G67" s="11">
-        <v>151313433</v>
+        <v>271328947</v>
       </c>
       <c r="H67" s="11">
-        <v>271328947</v>
+        <v>467941176</v>
       </c>
       <c r="I67" s="11">
-        <v>467941176</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>822971014</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>19</v>
       </c>
@@ -1918,14 +1918,14 @@
       <c r="G68" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="9" t="s">
-        <v>13</v>
+      <c r="H68" s="9">
+        <v>184345677</v>
       </c>
       <c r="I68" s="9">
-        <v>184345677</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>479088837</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>20</v>
       </c>
@@ -1942,14 +1942,14 @@
       <c r="G69" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>13</v>
+      <c r="H69" s="11">
+        <v>190495798</v>
       </c>
       <c r="I69" s="11">
-        <v>190495798</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>409611554</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>21</v>
       </c>
@@ -1966,14 +1966,14 @@
       <c r="G70" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H70" s="9" t="s">
-        <v>13</v>
+      <c r="H70" s="9">
+        <v>374269231</v>
       </c>
       <c r="I70" s="9">
-        <v>374269231</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>658976177</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1983,7 +1983,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1993,7 +1993,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2003,7 +2003,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>31</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2035,7 +2035,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>10</v>
       </c>
@@ -2043,23 +2043,23 @@
         <v>27</v>
       </c>
       <c r="D76" s="9"/>
-      <c r="E76" s="9" t="s">
-        <v>13</v>
+      <c r="E76" s="9">
+        <v>-690554</v>
       </c>
       <c r="F76" s="9">
-        <v>-690554</v>
+        <v>-950983</v>
       </c>
       <c r="G76" s="9">
-        <v>-950983</v>
+        <v>-1486756</v>
       </c>
       <c r="H76" s="9">
-        <v>-1486756</v>
+        <v>-2426701</v>
       </c>
       <c r="I76" s="9">
-        <v>-2426701</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4348731</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>12</v>
       </c>
@@ -2067,23 +2067,23 @@
         <v>27</v>
       </c>
       <c r="D77" s="11"/>
-      <c r="E77" s="11" t="s">
-        <v>13</v>
+      <c r="E77" s="11">
+        <v>-444775</v>
       </c>
       <c r="F77" s="11">
-        <v>-444775</v>
+        <v>-575642</v>
       </c>
       <c r="G77" s="11">
-        <v>-575642</v>
-      </c>
-      <c r="H77" s="11">
         <v>-954763</v>
       </c>
+      <c r="H77" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I77" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>14</v>
       </c>
@@ -2091,23 +2091,23 @@
         <v>27</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
-        <v>13</v>
+      <c r="E78" s="9">
+        <v>-26008</v>
       </c>
       <c r="F78" s="9">
-        <v>-26008</v>
+        <v>-446</v>
       </c>
       <c r="G78" s="9">
-        <v>-446</v>
+        <v>-54546</v>
       </c>
       <c r="H78" s="9">
-        <v>-54546</v>
+        <v>-176959</v>
       </c>
       <c r="I78" s="9">
-        <v>-176959</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-366413</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>15</v>
       </c>
@@ -2115,23 +2115,23 @@
         <v>27</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11" t="s">
-        <v>13</v>
+      <c r="E79" s="11">
+        <v>-113802</v>
       </c>
       <c r="F79" s="11">
-        <v>-113802</v>
+        <v>-206298</v>
       </c>
       <c r="G79" s="11">
-        <v>-206298</v>
+        <v>-277156</v>
       </c>
       <c r="H79" s="11">
-        <v>-277156</v>
+        <v>-439786</v>
       </c>
       <c r="I79" s="11">
-        <v>-439786</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-647720</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>24</v>
       </c>
@@ -2139,8 +2139,8 @@
         <v>27</v>
       </c>
       <c r="D80" s="9"/>
-      <c r="E80" s="9" t="s">
-        <v>13</v>
+      <c r="E80" s="9">
+        <v>0</v>
       </c>
       <c r="F80" s="9">
         <v>0</v>
@@ -2148,14 +2148,14 @@
       <c r="G80" s="9">
         <v>0</v>
       </c>
-      <c r="H80" s="9">
-        <v>0</v>
+      <c r="H80" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -2172,14 +2172,14 @@
       <c r="G81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H81" s="11" t="s">
-        <v>13</v>
+      <c r="H81" s="11">
+        <v>-328933</v>
       </c>
       <c r="I81" s="11">
-        <v>-328933</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-539169</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>17</v>
       </c>
@@ -2187,8 +2187,8 @@
         <v>27</v>
       </c>
       <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
-        <v>13</v>
+      <c r="E82" s="9">
+        <v>0</v>
       </c>
       <c r="F82" s="9">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>18</v>
       </c>
@@ -2211,23 +2211,23 @@
         <v>27</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
-        <v>13</v>
+      <c r="E83" s="11">
+        <v>-21455</v>
       </c>
       <c r="F83" s="11">
-        <v>-21455</v>
+        <v>-9309</v>
       </c>
       <c r="G83" s="11">
-        <v>-9309</v>
+        <v>-14528</v>
       </c>
       <c r="H83" s="11">
-        <v>-14528</v>
+        <v>-22767</v>
       </c>
       <c r="I83" s="11">
-        <v>-22767</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-45422</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>19</v>
       </c>
@@ -2244,14 +2244,14 @@
       <c r="G84" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="9" t="s">
-        <v>13</v>
+      <c r="H84" s="9">
+        <v>-944946</v>
       </c>
       <c r="I84" s="9">
-        <v>-944946</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1631704</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>20</v>
       </c>
@@ -2268,14 +2268,14 @@
       <c r="G85" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H85" s="11" t="s">
-        <v>13</v>
+      <c r="H85" s="11">
+        <v>-19491</v>
       </c>
       <c r="I85" s="11">
-        <v>-19491</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-167118</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>21</v>
       </c>
@@ -2292,36 +2292,36 @@
       <c r="G86" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H86" s="9" t="s">
-        <v>13</v>
+      <c r="H86" s="9">
+        <v>-303909</v>
       </c>
       <c r="I86" s="9">
-        <v>-303909</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-790135</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>0</v>
+        <v>-1296594</v>
       </c>
       <c r="F87" s="15">
-        <v>-1296594</v>
+        <v>-1742678</v>
       </c>
       <c r="G87" s="15">
-        <v>-1742678</v>
+        <v>-2787749</v>
       </c>
       <c r="H87" s="15">
-        <v>-2787749</v>
+        <v>-4663492</v>
       </c>
       <c r="I87" s="15">
-        <v>-4663492</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-8536412</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2331,7 +2331,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2341,7 +2341,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2351,7 +2351,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>32</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2383,7 +2383,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>10</v>
       </c>
@@ -2391,23 +2391,23 @@
         <v>27</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
-        <v>13</v>
+      <c r="E93" s="9">
+        <v>114802</v>
       </c>
       <c r="F93" s="9">
-        <v>114802</v>
+        <v>176028</v>
       </c>
       <c r="G93" s="9">
-        <v>176028</v>
+        <v>406336</v>
       </c>
       <c r="H93" s="9">
-        <v>406336</v>
+        <v>736216</v>
       </c>
       <c r="I93" s="9">
-        <v>736216</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2261738</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>12</v>
       </c>
@@ -2415,23 +2415,23 @@
         <v>27</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>13</v>
+      <c r="E94" s="11">
+        <v>79355</v>
       </c>
       <c r="F94" s="11">
-        <v>79355</v>
+        <v>138577</v>
       </c>
       <c r="G94" s="11">
-        <v>138577</v>
-      </c>
-      <c r="H94" s="11">
         <v>282031</v>
       </c>
+      <c r="H94" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I94" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>14</v>
       </c>
@@ -2439,23 +2439,23 @@
         <v>27</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="E95" s="9" t="s">
-        <v>13</v>
+      <c r="E95" s="9">
+        <v>7373</v>
       </c>
       <c r="F95" s="9">
-        <v>7373</v>
+        <v>121</v>
       </c>
       <c r="G95" s="9">
-        <v>121</v>
+        <v>14480</v>
       </c>
       <c r="H95" s="9">
-        <v>14480</v>
+        <v>31996</v>
       </c>
       <c r="I95" s="9">
-        <v>31996</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>210122</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>15</v>
       </c>
@@ -2463,23 +2463,23 @@
         <v>27</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
-        <v>13</v>
+      <c r="E96" s="11">
+        <v>46362</v>
       </c>
       <c r="F96" s="11">
-        <v>46362</v>
+        <v>127529</v>
       </c>
       <c r="G96" s="11">
-        <v>127529</v>
+        <v>71260</v>
       </c>
       <c r="H96" s="11">
-        <v>71260</v>
+        <v>116855</v>
       </c>
       <c r="I96" s="11">
-        <v>116855</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>87764</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>24</v>
       </c>
@@ -2490,20 +2490,20 @@
       <c r="E97" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F97" s="9" t="s">
-        <v>13</v>
+      <c r="F97" s="9">
+        <v>0</v>
       </c>
       <c r="G97" s="9">
         <v>0</v>
       </c>
-      <c r="H97" s="9">
-        <v>0</v>
+      <c r="H97" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>16</v>
       </c>
@@ -2520,14 +2520,14 @@
       <c r="G98" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H98" s="11" t="s">
-        <v>13</v>
+      <c r="H98" s="11">
+        <v>62628</v>
       </c>
       <c r="I98" s="11">
-        <v>62628</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>252196</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>17</v>
       </c>
@@ -2538,8 +2538,8 @@
       <c r="E99" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F99" s="9" t="s">
-        <v>13</v>
+      <c r="F99" s="9">
+        <v>0</v>
       </c>
       <c r="G99" s="9">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>18</v>
       </c>
@@ -2559,23 +2559,23 @@
         <v>27</v>
       </c>
       <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
-        <v>13</v>
+      <c r="E100" s="11">
+        <v>383</v>
       </c>
       <c r="F100" s="11">
-        <v>383</v>
+        <v>829</v>
       </c>
       <c r="G100" s="11">
-        <v>829</v>
+        <v>6093</v>
       </c>
       <c r="H100" s="11">
-        <v>6093</v>
+        <v>9053</v>
       </c>
       <c r="I100" s="11">
-        <v>9053</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11363</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>19</v>
       </c>
@@ -2592,14 +2592,14 @@
       <c r="G101" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H101" s="9" t="s">
-        <v>13</v>
+      <c r="H101" s="9">
+        <v>229889</v>
       </c>
       <c r="I101" s="9">
-        <v>229889</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1016220</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>20</v>
       </c>
@@ -2616,14 +2616,14 @@
       <c r="G102" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H102" s="11" t="s">
-        <v>13</v>
+      <c r="H102" s="11">
+        <v>3178</v>
       </c>
       <c r="I102" s="11">
-        <v>3178</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>38507</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>21</v>
       </c>
@@ -2640,33 +2640,33 @@
       <c r="G103" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H103" s="9" t="s">
-        <v>13</v>
+      <c r="H103" s="9">
+        <v>104793</v>
       </c>
       <c r="I103" s="9">
-        <v>104793</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>399317</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15">
-        <v>0</v>
+        <v>248275</v>
       </c>
       <c r="F104" s="15">
-        <v>248275</v>
+        <v>443084</v>
       </c>
       <c r="G104" s="15">
-        <v>443084</v>
+        <v>780200</v>
       </c>
       <c r="H104" s="15">
-        <v>780200</v>
+        <v>1294608</v>
       </c>
       <c r="I104" s="15">
-        <v>1294608</v>
+        <v>4277227</v>
       </c>
     </row>
   </sheetData>
